--- a/01_Tasks/Docs/Lab02/Lab02_BBT_TCs_Form_completat.xlsx
+++ b/01_Tasks/Docs/Lab02/Lab02_BBT_TCs_Form_completat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C13B05-5739-4F89-87A9-962C0001C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD063EB1-288A-4167-9E81-27AF36E3E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{9688E05E-015E-4595-BD7C-0A487AAA546D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">fill with DONE or n/a after regression testing
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="150">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -135,9 +160,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -322,34 +344,13 @@
     <t>Executable</t>
   </si>
   <si>
-    <t>titlu is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>01. titlu = "", length = 0</t>
-  </si>
-  <si>
     <t>expected result</t>
   </si>
   <si>
-    <t>02. titlu = ?, length = -1</t>
-  </si>
-  <si>
     <t>TC3_EC</t>
   </si>
   <si>
-    <t>03. titlu = "M", length = 1</t>
-  </si>
-  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>04. titlu = "M…123", length = 255</t>
-  </si>
-  <si>
-    <t>05. titlu = "M…12", length = 254</t>
-  </si>
-  <si>
-    <t>06. titlu = "M…1234", length = 256</t>
   </si>
   <si>
     <t>BBT TCs</t>
@@ -641,30 +642,6 @@
     <t>"T…1234"</t>
   </si>
   <si>
-    <t>interval is int/null, interval &gt; 0</t>
-  </si>
-  <si>
-    <t>01. interval = null</t>
-  </si>
-  <si>
-    <t>02. interval = -1</t>
-  </si>
-  <si>
-    <t>03. interval = 0</t>
-  </si>
-  <si>
-    <t>04. interval = 1</t>
-  </si>
-  <si>
-    <t>05. interval = "string"</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>"string"</t>
-  </si>
-  <si>
     <t>TC2_ECP</t>
   </si>
   <si>
@@ -680,15 +657,9 @@
     <t>Error message - Unparsable date!</t>
   </si>
   <si>
-    <t>Error message - Unparsable Date!</t>
-  </si>
-  <si>
     <t>interval &gt; 0</t>
   </si>
   <si>
-    <t>interval is int, interval &gt; 0</t>
-  </si>
-  <si>
     <t>TC1_BVA</t>
   </si>
   <si>
@@ -746,13 +717,55 @@
     <t>Error message-End date cannot be &lt;1950!</t>
   </si>
   <si>
-    <t>end is Date,  1950 &lt;= Date.year &lt;= 2040</t>
-  </si>
-  <si>
     <t>TC8_BVA</t>
   </si>
   <si>
     <t>TC16_BVA</t>
+  </si>
+  <si>
+    <t>interval &lt; 0</t>
+  </si>
+  <si>
+    <t>interval &gt;= 0</t>
+  </si>
+  <si>
+    <t>add(Task task): void</t>
+  </si>
+  <si>
+    <t>titlu - length in [1,255]</t>
+  </si>
+  <si>
+    <t>01.  length = 0</t>
+  </si>
+  <si>
+    <t>02. length = -1</t>
+  </si>
+  <si>
+    <t>03. length = 1</t>
+  </si>
+  <si>
+    <t>04. length = 255</t>
+  </si>
+  <si>
+    <t>05. length = 254</t>
+  </si>
+  <si>
+    <t>06. length = 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1950 &lt;= end.year &lt;= 2040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interval &gt;= 0</t>
+  </si>
+  <si>
+    <t>01. interval = -1</t>
+  </si>
+  <si>
+    <t>02. interval = 0</t>
+  </si>
+  <si>
+    <t>03. interval = 1</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1561,17 +1574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,30 +1596,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,74 +1662,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1698,6 +1738,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,48 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2079,7 +2086,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2126,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -2137,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
@@ -2149,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2">
         <v>236</v>
@@ -2190,7 +2197,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2198,7 +2205,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2206,7 +2213,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2229,17 +2236,17 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C20" s="42" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2256,7 +2263,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2274,7 +2281,7 @@
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43"/>
       <c r="B24" s="60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
@@ -2310,8 +2317,8 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2340,121 +2347,121 @@
       <c r="E1" s="63"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="G5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="G5" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="G6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="I6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="71"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>85</v>
+      <c r="C7" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="70"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="68"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J8" s="47">
         <v>45720</v>
@@ -2468,37 +2475,37 @@
       <c r="M8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="66"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="82"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
-        <v>87</v>
+      <c r="C9" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="18">
         <v>2</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K9" s="48">
         <v>45934</v>
@@ -2509,36 +2516,36 @@
       <c r="M9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" s="76"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="86"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G10" s="18">
         <v>3</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L10" s="8">
         <v>-7</v>
@@ -2546,22 +2553,22 @@
       <c r="M10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="74"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>89</v>
+      <c r="C11" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="12"/>
@@ -2571,30 +2578,30 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="74"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="78" t="s">
-        <v>131</v>
+      <c r="C13" s="66" t="s">
+        <v>113</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -2602,21 +2609,21 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="77" t="s">
-        <v>91</v>
+      <c r="C15" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -2624,18 +2631,18 @@
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>32</v>
+      <c r="C17" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2644,7 +2651,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
@@ -2652,8 +2659,8 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>32</v>
+      <c r="C19" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2662,19 +2669,37 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="52"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I6:O6"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
@@ -2682,24 +2707,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2713,8 +2720,8 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="96" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2729,7 +2736,7 @@
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.54296875" customWidth="1"/>
     <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.26953125" customWidth="1"/>
@@ -2745,110 +2752,110 @@
       <c r="E1" s="63"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
     </row>
     <row r="6" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="I6" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="J6" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="K6" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="93"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="66">
+        <v>1</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="91"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="78">
-        <v>1</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="68"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="92"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
@@ -2859,7 +2866,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="51">
         <v>45842</v>
@@ -2873,16 +2880,16 @@
       <c r="O8" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="88"/>
+      <c r="P8" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="89"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="G9" s="18">
         <v>2</v>
@@ -2892,31 +2899,31 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="74"/>
+        <v>31</v>
+      </c>
+      <c r="P9" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="91"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="G10" s="22">
         <v>3</v>
@@ -2925,11 +2932,11 @@
         <v>1.3</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L10" s="51">
         <v>45720</v>
@@ -2943,16 +2950,16 @@
       <c r="O10" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q10" s="88"/>
+      <c r="P10" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="89"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="G11" s="22">
         <v>4</v>
@@ -2961,17 +2968,17 @@
         <v>1.4</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L11" s="51">
         <v>45813</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N11" s="32">
         <v>5</v>
@@ -2979,16 +2986,16 @@
       <c r="O11" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q11" s="88"/>
+      <c r="P11" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="89"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="79"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="G12" s="22">
         <v>5</v>
@@ -2997,17 +3004,17 @@
         <v>1.5</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L12" s="51">
         <v>45814</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N12" s="32">
         <v>5</v>
@@ -3015,20 +3022,20 @@
       <c r="O12" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="88"/>
+      <c r="P12" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="89"/>
     </row>
     <row r="13" spans="2:17" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53">
         <v>2</v>
       </c>
-      <c r="C13" s="93" t="s">
-        <v>151</v>
+      <c r="C13" s="95" t="s">
+        <v>145</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G13" s="18">
         <v>6</v>
@@ -3038,16 +3045,16 @@
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L13" s="51">
         <v>45815</v>
       </c>
       <c r="M13" s="51" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N13" s="32">
         <v>5</v>
@@ -3055,27 +3062,27 @@
       <c r="O13" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="74"/>
+      <c r="P13" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="91"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="57"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G14" s="22">
         <v>7</v>
       </c>
       <c r="H14" s="16">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="15"/>
       <c r="K14" s="32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L14" s="51">
         <v>43835</v>
@@ -3089,33 +3096,33 @@
       <c r="O14" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="57"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G15" s="22">
         <v>8</v>
       </c>
       <c r="H15" s="16">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="15"/>
       <c r="K15" s="32" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="N15" s="32">
         <v>10</v>
@@ -3123,27 +3130,27 @@
       <c r="O15" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="56"/>
+      <c r="P15" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G16" s="18">
         <v>9</v>
       </c>
       <c r="H16" s="16">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="15"/>
       <c r="K16" s="32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L16" s="51">
         <v>43837</v>
@@ -3157,27 +3164,27 @@
       <c r="O16" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="56"/>
+      <c r="P16" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="57"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G17" s="22">
         <v>10</v>
       </c>
       <c r="H17" s="16">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="15"/>
       <c r="K17" s="32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L17" s="51">
         <v>43838</v>
@@ -3191,27 +3198,27 @@
       <c r="O17" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="56"/>
+      <c r="P17" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="54"/>
-      <c r="C18" s="95"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G18" s="22">
         <v>11</v>
       </c>
       <c r="H18" s="16">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="15"/>
       <c r="K18" s="32" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="L18" s="51">
         <v>43839</v>
@@ -3225,37 +3232,35 @@
       <c r="O18" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="56"/>
+      <c r="P18" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="78">
-        <v>4</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B19" s="66">
+        <v>3</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="G19" s="18">
         <v>12</v>
       </c>
       <c r="H19" s="16">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="15"/>
       <c r="K19" s="32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M19" s="51" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="N19" s="32">
         <v>-7</v>
@@ -3263,189 +3268,129 @@
       <c r="O19" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="88"/>
+      <c r="P19" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="92"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G20" s="22">
-        <v>13</v>
-      </c>
-      <c r="H20" s="16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H20" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K20" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L20" s="51">
-        <v>45842</v>
+        <v>45843</v>
       </c>
       <c r="M20" s="51">
-        <v>45934</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="32" t="b">
+        <v>45935</v>
+      </c>
+      <c r="N20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="91"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="94"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="18">
+        <v>15</v>
+      </c>
+      <c r="H21" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="51">
+        <v>45844</v>
+      </c>
+      <c r="M21" s="51">
+        <v>45936</v>
+      </c>
+      <c r="N21" s="32">
         <v>0</v>
       </c>
-      <c r="P20" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="88"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="92"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="22">
-        <v>14</v>
-      </c>
-      <c r="H21" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="51">
-        <v>45843</v>
-      </c>
-      <c r="M21" s="51">
-        <v>45935</v>
-      </c>
-      <c r="N21" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="17" t="b">
+      <c r="O21" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q21" s="74"/>
+      <c r="P21" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="92"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="18">
-        <v>15</v>
-      </c>
-      <c r="H22" s="16">
-        <v>4.3</v>
+        <v>149</v>
+      </c>
+      <c r="G22" s="22">
+        <v>16</v>
+      </c>
+      <c r="H22" s="19">
+        <v>3.3</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="51">
-        <v>45844</v>
-      </c>
-      <c r="M22" s="51">
-        <v>45936</v>
+        <v>124</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>117</v>
       </c>
       <c r="N22" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="88"/>
+      <c r="P22" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="92"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="22">
-        <v>16</v>
-      </c>
-      <c r="H23" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="M23" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="N23" s="32">
-        <v>1</v>
-      </c>
-      <c r="O23" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q23" s="88"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="79"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="2"/>
-      <c r="G24" s="22">
-        <v>17</v>
-      </c>
-      <c r="H24" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="51">
-        <v>45846</v>
-      </c>
-      <c r="M24" s="51">
-        <v>45938</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
+  <mergeCells count="26">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3462,13 +3407,13 @@
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,17 +3426,17 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:N27"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.26953125" customWidth="1"/>
@@ -3507,92 +3452,92 @@
       <c r="E1" s="63"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
+      <c r="B3" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="B4" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="71" t="s">
+      <c r="L4" s="79"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="106"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="115"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" s="25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>63</v>
+      <c r="C6" s="103" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="58">
+        <v>85</v>
+      </c>
+      <c r="G6" s="56">
         <v>45720</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="56">
         <v>45812</v>
       </c>
       <c r="I6" s="28">
@@ -3602,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3613,20 +3558,20 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="29" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="58">
+        <v>99</v>
+      </c>
+      <c r="H7" s="56">
         <v>45934</v>
       </c>
       <c r="I7" s="28">
@@ -3636,31 +3581,31 @@
         <v>0</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="23">
         <v>3</v>
       </c>
-      <c r="C8" s="112"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I8" s="28">
         <v>-7</v>
@@ -3669,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -3680,18 +3625,18 @@
         <f>B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="112"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="30"/>
       <c r="E9" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="59">
+        <v>34</v>
+      </c>
+      <c r="G9" s="57">
         <v>45842</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <v>45934</v>
       </c>
       <c r="I9" s="10">
@@ -3701,31 +3646,31 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="112"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I10" s="10">
         <v>-7</v>
@@ -3734,31 +3679,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="112"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="I11" s="10">
         <v>10</v>
@@ -3767,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -3778,21 +3723,21 @@
         <f t="shared" ref="B12:B18" si="0">B11+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="112"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
@@ -3801,17 +3746,17 @@
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="23">
         <v>8</v>
       </c>
-      <c r="C13" s="113"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="22"/>
       <c r="E13" s="11"/>
       <c r="F13" s="14"/>
@@ -3827,12 +3772,12 @@
         <f>B13+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="22"/>
       <c r="E14" s="11"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
@@ -3843,7 +3788,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3858,7 +3803,7 @@
       <c r="B16" s="23">
         <v>11</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="22"/>
       <c r="E16" s="11"/>
       <c r="F16" s="14"/>
@@ -3874,7 +3819,7 @@
         <f>B16+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="104"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3890,7 +3835,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3905,33 +3850,33 @@
       <c r="B19" s="24">
         <v>20</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="J19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3949,7 +3894,7 @@
     </row>
     <row r="21" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -3965,84 +3910,84 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="36" t="s">
+      <c r="H24" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
-    </row>
-    <row r="24" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="108"/>
-      <c r="J24" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="101" t="s">
-        <v>73</v>
+      <c r="I24" s="124"/>
+      <c r="J24" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="114" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="101"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="114"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C26" s="35">
         <v>7</v>
@@ -4059,46 +4004,75 @@
       <c r="G26" s="41">
         <v>4</v>
       </c>
-      <c r="H26" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="119"/>
+      <c r="H26" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="110"/>
       <c r="J26" s="2">
         <v>4</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="K27" s="3"/>
+    <row r="27" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="117"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H28" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H29" s="119"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H30" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="37">
+        <v>4</v>
+      </c>
+      <c r="K30" s="38">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
+  <mergeCells count="30">
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="M24:M25"/>
@@ -4109,6 +4083,21 @@
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H24:I25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4117,21 +4106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4275,24 +4249,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4308,4 +4280,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>